--- a/stats/austroplaca/month_active_temp_stats_X3.xlsx
+++ b/stats/austroplaca/month_active_temp_stats_X3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">min_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_temp</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -391,6 +397,9 @@
       <c r="E2" t="n">
         <v>-4.2</v>
       </c>
+      <c r="F2" t="n">
+        <v>3.27009582271967</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -408,6 +417,9 @@
       <c r="E3" t="n">
         <v>-6.7</v>
       </c>
+      <c r="F3" t="n">
+        <v>2.8634823406784</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -425,6 +437,9 @@
       <c r="E4" t="n">
         <v>-7.2</v>
       </c>
+      <c r="F4" t="n">
+        <v>1.77958786479798</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -442,6 +457,9 @@
       <c r="E5" t="n">
         <v>-5.4</v>
       </c>
+      <c r="F5" t="n">
+        <v>3.17279898618366</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -459,6 +477,9 @@
       <c r="E6" t="n">
         <v>-6.4</v>
       </c>
+      <c r="F6" t="n">
+        <v>2.58404747250405</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -476,6 +497,9 @@
       <c r="E7" t="n">
         <v>-6.9</v>
       </c>
+      <c r="F7" t="n">
+        <v>1.71972595726248</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -493,6 +517,9 @@
       <c r="E8" t="n">
         <v>-1.4</v>
       </c>
+      <c r="F8" t="n">
+        <v>2.68129891427354</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -510,6 +537,9 @@
       <c r="E9" t="n">
         <v>-4.4</v>
       </c>
+      <c r="F9" t="n">
+        <v>2.29525515159356</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,6 +557,9 @@
       <c r="E10" t="n">
         <v>-3.4</v>
       </c>
+      <c r="F10" t="n">
+        <v>3.00881012307577</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -543,6 +576,9 @@
       </c>
       <c r="E11" t="n">
         <v>-4.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.41592976873155</v>
       </c>
     </row>
   </sheetData>
